--- a/experiment/quadratic/ex9.2.1/Experimentos_Generador/ex9.2.1(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.1/Experimentos_Generador/ex9.2.1(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>3 - 3x + 0.03956234812767678y</t>
-  </si>
-  <si>
-    <t>-2.8183123254040545</t>
+    <t>-26.483333333333338 - 3x + 6.88888888888889y</t>
+  </si>
+  <si>
+    <t>29.483333333333338</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23256681002040058</t>
-  </si>
-  <si>
-    <t>0.2920293923982492</t>
-  </si>
-  <si>
-    <t>0.024561578196496396</t>
-  </si>
-  <si>
-    <t>-4 + x - 0.1895839180572576y</t>
-  </si>
-  <si>
-    <t>-2.162764721391758</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>-1.6175000000000002 + x - 0.050000000000000044y</t>
+  </si>
+  <si>
+    <t>-2.3825</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.4265237521284301</t>
-  </si>
-  <si>
-    <t>0.3183540883823528</t>
-  </si>
-  <si>
-    <t>0.01312881815875632</t>
-  </si>
-  <si>
-    <t>-7 + x + 0.0313417894028748y</t>
-  </si>
-  <si>
-    <t>-5.0347628096971455</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>-9.049999999999999 + x + 0.6666666666666667y</t>
+  </si>
+  <si>
+    <t>-2.0499999999999994</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5004082174406084</t>
-  </si>
-  <si>
-    <t>0.20384321567346253</t>
-  </si>
-  <si>
-    <t>0.01945799093502997</t>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>0.6</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.9470781041303145</t>
-  </si>
-  <si>
-    <t>0.5793889410435026</t>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>4.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.817816740113995</t>
+    <t>-6.0167222222222225</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>7.390982910706531</t>
-  </si>
-  <si>
-    <t>-9.834363220336332</t>
+    <t>19.949999999999996</t>
+  </si>
+  <si>
+    <t>-114.54333333333334</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -741,7 +741,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6208321638854848</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>
